--- a/dataanalysis/data/predictions/1000/08190956_1343.xlsx
+++ b/dataanalysis/data/predictions/1000/08190956_1343.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="215">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-19</t>
   </si>
   <si>
@@ -656,12 +659,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1019,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH120"/>
+  <dimension ref="A1:AI120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,19 +1125,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300009</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.42</v>
@@ -1158,7 +1158,7 @@
         <v>63863.2</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K2">
         <v>14</v>
@@ -1199,8 +1199,23 @@
       <c r="W2">
         <v>0.39</v>
       </c>
+      <c r="X2">
+        <v>-1.76</v>
+      </c>
+      <c r="Y2">
+        <v>11.99</v>
+      </c>
+      <c r="Z2">
+        <v>-3.69</v>
+      </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1208,22 +1223,25 @@
       <c r="AG2">
         <v>0.220690906047821</v>
       </c>
-      <c r="AH2" t="s">
-        <v>214</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300016</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>13.17</v>
@@ -1241,7 +1259,7 @@
         <v>71323.52</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1282,8 +1300,23 @@
       <c r="W3">
         <v>0.47</v>
       </c>
+      <c r="X3">
+        <v>-8.35</v>
+      </c>
+      <c r="Y3">
+        <v>11.15</v>
+      </c>
+      <c r="Z3">
+        <v>-5.99</v>
+      </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1291,22 +1324,25 @@
       <c r="AG3">
         <v>4.405737400054932</v>
       </c>
-      <c r="AH3" t="s">
-        <v>214</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300033</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-2.27</v>
@@ -1324,7 +1360,7 @@
         <v>263703.71</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1365,8 +1401,23 @@
       <c r="W4">
         <v>-0.23</v>
       </c>
+      <c r="X4">
+        <v>-0.71</v>
+      </c>
+      <c r="Y4">
+        <v>389.88</v>
+      </c>
+      <c r="Z4">
+        <v>-1.47</v>
+      </c>
       <c r="AC4" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1374,22 +1425,25 @@
       <c r="AG4">
         <v>6.002778053283691</v>
       </c>
-      <c r="AH4" t="s">
-        <v>214</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300047</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.63</v>
@@ -1407,7 +1461,7 @@
         <v>61382.04</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1448,8 +1502,23 @@
       <c r="W5">
         <v>-0.24</v>
       </c>
+      <c r="X5">
+        <v>-0.85</v>
+      </c>
+      <c r="Y5">
+        <v>19.07</v>
+      </c>
+      <c r="Z5">
+        <v>-0.68</v>
+      </c>
       <c r="AC5" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1457,22 +1526,25 @@
       <c r="AG5">
         <v>8.157299995422363</v>
       </c>
-      <c r="AH5" t="s">
-        <v>214</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300059</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.18</v>
@@ -1490,7 +1562,7 @@
         <v>648384.77</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1531,8 +1603,23 @@
       <c r="W6">
         <v>-0.09</v>
       </c>
+      <c r="X6">
+        <v>0.67</v>
+      </c>
+      <c r="Y6">
+        <v>27.08</v>
+      </c>
+      <c r="Z6">
+        <v>-1.6</v>
+      </c>
       <c r="AC6" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1540,22 +1627,25 @@
       <c r="AG6">
         <v>7.468608856201172</v>
       </c>
-      <c r="AH6" t="s">
-        <v>214</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.42</v>
@@ -1573,7 +1663,7 @@
         <v>29581.77</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -1614,8 +1704,23 @@
       <c r="W7">
         <v>-0.19</v>
       </c>
+      <c r="X7">
+        <v>6.21</v>
+      </c>
+      <c r="Y7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>13.73</v>
+      </c>
       <c r="AC7" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1623,22 +1728,25 @@
       <c r="AG7">
         <v>7.182797431945801</v>
       </c>
-      <c r="AH7" t="s">
-        <v>214</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300145</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.2</v>
@@ -1656,7 +1764,7 @@
         <v>52240.67</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1697,8 +1805,23 @@
       <c r="W8">
         <v>-0.12</v>
       </c>
+      <c r="X8">
+        <v>-0.19</v>
+      </c>
+      <c r="Y8">
+        <v>5.35</v>
+      </c>
+      <c r="Z8">
+        <v>0.19</v>
+      </c>
       <c r="AC8" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1706,22 +1829,25 @@
       <c r="AG8">
         <v>1.757927417755127</v>
       </c>
-      <c r="AH8" t="s">
-        <v>214</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300158</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>6.4</v>
@@ -1739,7 +1865,7 @@
         <v>72211.05</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -1780,8 +1906,23 @@
       <c r="W9">
         <v>0.37</v>
       </c>
+      <c r="X9">
+        <v>-5.61</v>
+      </c>
+      <c r="Y9">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>-0.33</v>
+      </c>
       <c r="AC9" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1789,22 +1930,25 @@
       <c r="AG9">
         <v>1.620495557785034</v>
       </c>
-      <c r="AH9" t="s">
-        <v>214</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300184</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-0.87</v>
@@ -1822,7 +1966,7 @@
         <v>105777.03</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1863,8 +2007,23 @@
       <c r="W10">
         <v>-0.51</v>
       </c>
+      <c r="X10">
+        <v>1.21</v>
+      </c>
+      <c r="Y10">
+        <v>11.7</v>
+      </c>
+      <c r="Z10">
+        <v>2.18</v>
+      </c>
       <c r="AC10" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1872,22 +2031,25 @@
       <c r="AG10">
         <v>-4.773640155792236</v>
       </c>
-      <c r="AH10" t="s">
-        <v>214</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300188</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-1.12</v>
@@ -1905,7 +2067,7 @@
         <v>32623.88</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1946,8 +2108,23 @@
       <c r="W11">
         <v>-0.16</v>
       </c>
+      <c r="X11">
+        <v>-2.21</v>
+      </c>
+      <c r="Y11">
+        <v>18.41</v>
+      </c>
+      <c r="Z11">
+        <v>-0.97</v>
+      </c>
       <c r="AC11" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1955,22 +2132,25 @@
       <c r="AG11">
         <v>2.006190061569214</v>
       </c>
-      <c r="AH11" t="s">
-        <v>214</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300196</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.43</v>
@@ -1988,7 +2168,7 @@
         <v>12302.03</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -2029,8 +2209,23 @@
       <c r="W12">
         <v>-0.26</v>
       </c>
+      <c r="X12">
+        <v>-1.62</v>
+      </c>
+      <c r="Y12">
+        <v>16.74</v>
+      </c>
+      <c r="Z12">
+        <v>0.78</v>
+      </c>
       <c r="AC12" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2038,22 +2233,25 @@
       <c r="AG12">
         <v>3.879676818847656</v>
       </c>
-      <c r="AH12" t="s">
-        <v>214</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300199</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2071,7 +2269,7 @@
         <v>163052.15</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -2112,8 +2310,23 @@
       <c r="W13">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X13">
+        <v>-0.21</v>
+      </c>
+      <c r="Y13">
+        <v>31.19</v>
+      </c>
+      <c r="Z13">
+        <v>4.28</v>
+      </c>
       <c r="AC13" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2121,22 +2334,25 @@
       <c r="AG13">
         <v>5.380386352539062</v>
       </c>
-      <c r="AH13" t="s">
-        <v>214</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300213</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.65</v>
@@ -2154,7 +2370,7 @@
         <v>14102.67</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -2195,8 +2411,23 @@
       <c r="W14">
         <v>-0.1</v>
       </c>
+      <c r="X14">
+        <v>0.82</v>
+      </c>
+      <c r="Y14">
+        <v>11.46</v>
+      </c>
+      <c r="Z14">
+        <v>6.51</v>
+      </c>
       <c r="AC14" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2204,22 +2435,25 @@
       <c r="AG14">
         <v>4.008639335632324</v>
       </c>
-      <c r="AH14" t="s">
-        <v>214</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300224</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.25</v>
@@ -2237,7 +2471,7 @@
         <v>45062.22</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -2278,8 +2512,23 @@
       <c r="W15">
         <v>-0.12</v>
       </c>
+      <c r="X15">
+        <v>-0.54</v>
+      </c>
+      <c r="Y15">
+        <v>19.66</v>
+      </c>
+      <c r="Z15">
+        <v>3.8</v>
+      </c>
       <c r="AC15" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2287,22 +2536,25 @@
       <c r="AG15">
         <v>2.647228240966797</v>
       </c>
-      <c r="AH15" t="s">
-        <v>214</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300252</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.07000000000000001</v>
@@ -2320,7 +2572,7 @@
         <v>42360.83</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2361,8 +2613,23 @@
       <c r="W16">
         <v>-0.64</v>
       </c>
+      <c r="X16">
+        <v>-0.91</v>
+      </c>
+      <c r="Y16">
+        <v>14.5</v>
+      </c>
+      <c r="Z16">
+        <v>2.62</v>
+      </c>
       <c r="AC16" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2370,22 +2637,25 @@
       <c r="AG16">
         <v>1.033046722412109</v>
       </c>
-      <c r="AH16" t="s">
-        <v>214</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300290</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.73</v>
@@ -2403,7 +2673,7 @@
         <v>35726.09</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2444,8 +2714,23 @@
       <c r="W17">
         <v>-0.13</v>
       </c>
+      <c r="X17">
+        <v>3.03</v>
+      </c>
+      <c r="Y17">
+        <v>23.88</v>
+      </c>
+      <c r="Z17">
+        <v>1.7</v>
+      </c>
       <c r="AC17" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2453,22 +2738,25 @@
       <c r="AG17">
         <v>12.67846298217773</v>
       </c>
-      <c r="AH17" t="s">
-        <v>214</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300291</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.85</v>
@@ -2486,7 +2774,7 @@
         <v>43986.74</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2527,8 +2815,23 @@
       <c r="W18">
         <v>-0.49</v>
       </c>
+      <c r="X18">
+        <v>-2.21</v>
+      </c>
+      <c r="Y18">
+        <v>6.8</v>
+      </c>
+      <c r="Z18">
+        <v>-0.15</v>
+      </c>
       <c r="AC18" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2536,22 +2839,25 @@
       <c r="AG18">
         <v>8.973627090454102</v>
       </c>
-      <c r="AH18" t="s">
-        <v>214</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300300</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>6.78</v>
@@ -2569,7 +2875,7 @@
         <v>28343.9</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2610,8 +2916,23 @@
       <c r="W19">
         <v>0.42</v>
       </c>
+      <c r="X19">
+        <v>-3.11</v>
+      </c>
+      <c r="Y19">
+        <v>6.08</v>
+      </c>
+      <c r="Z19">
+        <v>-3.49</v>
+      </c>
       <c r="AC19" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2619,22 +2940,25 @@
       <c r="AG19">
         <v>5.8595871925354</v>
       </c>
-      <c r="AH19" t="s">
-        <v>214</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300324</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.33</v>
@@ -2652,7 +2976,7 @@
         <v>74553.89</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2693,8 +3017,23 @@
       <c r="W20">
         <v>-0.84</v>
       </c>
+      <c r="X20">
+        <v>-1.88</v>
+      </c>
+      <c r="Y20">
+        <v>6.03</v>
+      </c>
+      <c r="Z20">
+        <v>-1.31</v>
+      </c>
       <c r="AC20" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2702,22 +3041,25 @@
       <c r="AG20">
         <v>4.797940731048584</v>
       </c>
-      <c r="AH20" t="s">
-        <v>214</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300368</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>4.18</v>
@@ -2735,7 +3077,7 @@
         <v>76849.96000000001</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2776,8 +3118,23 @@
       <c r="W21">
         <v>0.45</v>
       </c>
+      <c r="X21">
+        <v>4.3</v>
+      </c>
+      <c r="Y21">
+        <v>17.47</v>
+      </c>
+      <c r="Z21">
+        <v>0.06</v>
+      </c>
       <c r="AC21" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2785,22 +3142,25 @@
       <c r="AG21">
         <v>1.695876121520996</v>
       </c>
-      <c r="AH21" t="s">
-        <v>214</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300398</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.42</v>
@@ -2818,7 +3178,7 @@
         <v>56568.87</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2859,8 +3219,23 @@
       <c r="W22">
         <v>-0.46</v>
       </c>
+      <c r="X22">
+        <v>1.31</v>
+      </c>
+      <c r="Y22">
+        <v>24.06</v>
+      </c>
+      <c r="Z22">
+        <v>0.08</v>
+      </c>
       <c r="AC22" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2868,22 +3243,25 @@
       <c r="AG22">
         <v>3.308140277862549</v>
       </c>
-      <c r="AH22" t="s">
-        <v>214</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300400</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.6</v>
@@ -2901,7 +3279,7 @@
         <v>41776.04</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2942,8 +3320,23 @@
       <c r="W23">
         <v>-0.29</v>
       </c>
+      <c r="X23">
+        <v>-7.47</v>
+      </c>
+      <c r="Y23">
+        <v>26.33</v>
+      </c>
+      <c r="Z23">
+        <v>-1.13</v>
+      </c>
       <c r="AC23" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2951,22 +3344,25 @@
       <c r="AG23">
         <v>3.73608136177063</v>
       </c>
-      <c r="AH23" t="s">
-        <v>214</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300409</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.57</v>
@@ -2984,7 +3380,7 @@
         <v>54890.49</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -3025,8 +3421,23 @@
       <c r="W24">
         <v>-0.33</v>
       </c>
+      <c r="X24">
+        <v>1.26</v>
+      </c>
+      <c r="Y24">
+        <v>21.8</v>
+      </c>
+      <c r="Z24">
+        <v>3.86</v>
+      </c>
       <c r="AC24" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3034,22 +3445,25 @@
       <c r="AG24">
         <v>13.35526943206787</v>
       </c>
-      <c r="AH24" t="s">
-        <v>214</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300430</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.16</v>
@@ -3067,7 +3481,7 @@
         <v>19011.6</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -3108,8 +3522,23 @@
       <c r="W25">
         <v>-0.11</v>
       </c>
+      <c r="X25">
+        <v>-1.74</v>
+      </c>
+      <c r="Y25">
+        <v>23.47</v>
+      </c>
+      <c r="Z25">
+        <v>-3.65</v>
+      </c>
       <c r="AC25" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3117,22 +3546,25 @@
       <c r="AG25">
         <v>9.145918846130371</v>
       </c>
-      <c r="AH25" t="s">
-        <v>214</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300436</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.98</v>
@@ -3150,7 +3582,7 @@
         <v>89691.13</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26">
         <v>34</v>
@@ -3191,8 +3623,23 @@
       <c r="W26">
         <v>-0.18</v>
       </c>
+      <c r="X26">
+        <v>-8.69</v>
+      </c>
+      <c r="Y26">
+        <v>159.92</v>
+      </c>
+      <c r="Z26">
+        <v>-12.38</v>
+      </c>
       <c r="AC26" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3200,22 +3647,25 @@
       <c r="AG26">
         <v>22.76994514465332</v>
       </c>
-      <c r="AH26" t="s">
-        <v>214</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300453</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.27</v>
@@ -3233,7 +3683,7 @@
         <v>23238.84</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3274,8 +3724,23 @@
       <c r="W27">
         <v>-0.08</v>
       </c>
+      <c r="X27">
+        <v>-5.42</v>
+      </c>
+      <c r="Y27">
+        <v>10.88</v>
+      </c>
+      <c r="Z27">
+        <v>-2.25</v>
+      </c>
       <c r="AC27" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3283,22 +3748,25 @@
       <c r="AG27">
         <v>4.80145263671875</v>
       </c>
-      <c r="AH27" t="s">
-        <v>214</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300486</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.3</v>
@@ -3316,7 +3784,7 @@
         <v>40736.67</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3357,8 +3825,23 @@
       <c r="W28">
         <v>-0.01</v>
       </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>-100</v>
+      </c>
       <c r="AC28" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3366,22 +3849,25 @@
       <c r="AG28">
         <v>3.523837566375732</v>
       </c>
-      <c r="AH28" t="s">
-        <v>214</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300499</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>7.3</v>
@@ -3399,7 +3885,7 @@
         <v>227603.07</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3440,8 +3926,23 @@
       <c r="W29">
         <v>-1.11</v>
       </c>
+      <c r="X29">
+        <v>-1.64</v>
+      </c>
+      <c r="Y29">
+        <v>33.23</v>
+      </c>
+      <c r="Z29">
+        <v>0.09</v>
+      </c>
       <c r="AC29" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -3449,22 +3950,25 @@
       <c r="AG29">
         <v>8.418160438537598</v>
       </c>
-      <c r="AH29" t="s">
-        <v>214</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300539</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>1.06</v>
@@ -3482,7 +3986,7 @@
         <v>40987.59</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3523,8 +4027,23 @@
       <c r="W30">
         <v>0.08</v>
       </c>
+      <c r="X30">
+        <v>-7.89</v>
+      </c>
+      <c r="Y30">
+        <v>34.4</v>
+      </c>
+      <c r="Z30">
+        <v>3.15</v>
+      </c>
       <c r="AC30" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3532,22 +4051,25 @@
       <c r="AG30">
         <v>8.57177734375</v>
       </c>
-      <c r="AH30" t="s">
-        <v>215</v>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300547</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>4.55</v>
@@ -3565,7 +4087,7 @@
         <v>156592.15</v>
       </c>
       <c r="J31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3606,8 +4128,23 @@
       <c r="W31">
         <v>0.65</v>
       </c>
+      <c r="X31">
+        <v>-4.13</v>
+      </c>
+      <c r="Y31">
+        <v>53.5</v>
+      </c>
+      <c r="Z31">
+        <v>-3.08</v>
+      </c>
       <c r="AC31" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3615,22 +4152,25 @@
       <c r="AG31">
         <v>-1.498652696609497</v>
       </c>
-      <c r="AH31" t="s">
-        <v>214</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300548</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>4.68</v>
@@ -3648,7 +4188,7 @@
         <v>89062.92</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32">
         <v>26</v>
@@ -3689,8 +4229,23 @@
       <c r="W32">
         <v>0.28</v>
       </c>
+      <c r="X32">
+        <v>6.04</v>
+      </c>
+      <c r="Y32">
+        <v>109.88</v>
+      </c>
+      <c r="Z32">
+        <v>5.86</v>
+      </c>
       <c r="AC32" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3698,22 +4253,25 @@
       <c r="AG32">
         <v>5.823572158813477</v>
       </c>
-      <c r="AH32" t="s">
-        <v>215</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300579</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.64</v>
@@ -3731,7 +4289,7 @@
         <v>19820.6</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3772,8 +4330,23 @@
       <c r="W33">
         <v>-0.08</v>
       </c>
+      <c r="X33">
+        <v>-0.93</v>
+      </c>
+      <c r="Y33">
+        <v>39.98</v>
+      </c>
+      <c r="Z33">
+        <v>-1.28</v>
+      </c>
       <c r="AC33" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3781,22 +4354,25 @@
       <c r="AG33">
         <v>2.16883111000061</v>
       </c>
-      <c r="AH33" t="s">
-        <v>214</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300584</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.44</v>
@@ -3814,7 +4390,7 @@
         <v>44787.11</v>
       </c>
       <c r="J34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3855,8 +4431,23 @@
       <c r="W34">
         <v>-0.61</v>
       </c>
+      <c r="X34">
+        <v>-3.24</v>
+      </c>
+      <c r="Y34">
+        <v>56.69</v>
+      </c>
+      <c r="Z34">
+        <v>-4.34</v>
+      </c>
       <c r="AC34" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3864,22 +4455,25 @@
       <c r="AG34">
         <v>3.622924566268921</v>
       </c>
-      <c r="AH34" t="s">
-        <v>214</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300593</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.8</v>
@@ -3897,7 +4491,7 @@
         <v>37195.85</v>
       </c>
       <c r="J35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K35">
         <v>8</v>
@@ -3938,8 +4532,23 @@
       <c r="W35">
         <v>-0.15</v>
       </c>
+      <c r="X35">
+        <v>-1.38</v>
+      </c>
+      <c r="Y35">
+        <v>20.18</v>
+      </c>
+      <c r="Z35">
+        <v>1.82</v>
+      </c>
       <c r="AC35" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3947,22 +4556,25 @@
       <c r="AG35">
         <v>0.9236847758293152</v>
       </c>
-      <c r="AH35" t="s">
-        <v>214</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300600</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-2.13</v>
@@ -3980,7 +4592,7 @@
         <v>26028.57</v>
       </c>
       <c r="J36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -4021,8 +4633,23 @@
       <c r="W36">
         <v>-0.46</v>
       </c>
+      <c r="X36">
+        <v>-3.72</v>
+      </c>
+      <c r="Y36">
+        <v>21.86</v>
+      </c>
+      <c r="Z36">
+        <v>-2.89</v>
+      </c>
       <c r="AC36" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4030,22 +4657,25 @@
       <c r="AG36">
         <v>4.891721725463867</v>
       </c>
-      <c r="AH36" t="s">
-        <v>214</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300602</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>2.34</v>
@@ -4063,7 +4693,7 @@
         <v>114379.98</v>
       </c>
       <c r="J37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4104,8 +4734,23 @@
       <c r="W37">
         <v>0.15</v>
       </c>
+      <c r="X37">
+        <v>-2.16</v>
+      </c>
+      <c r="Y37">
+        <v>34.84</v>
+      </c>
+      <c r="Z37">
+        <v>-1.61</v>
+      </c>
       <c r="AC37" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4113,22 +4758,25 @@
       <c r="AG37">
         <v>2.121291160583496</v>
       </c>
-      <c r="AH37" t="s">
-        <v>214</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300609</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.77</v>
@@ -4146,7 +4794,7 @@
         <v>25082.66</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K38">
         <v>15</v>
@@ -4187,8 +4835,23 @@
       <c r="W38">
         <v>-0.19</v>
       </c>
+      <c r="X38">
+        <v>-7.92</v>
+      </c>
+      <c r="Y38">
+        <v>60.5</v>
+      </c>
+      <c r="Z38">
+        <v>2.86</v>
+      </c>
       <c r="AC38" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4196,22 +4859,25 @@
       <c r="AG38">
         <v>1.746334671974182</v>
       </c>
-      <c r="AH38" t="s">
-        <v>214</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300620</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>6.6</v>
@@ -4229,7 +4895,7 @@
         <v>216621.18</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -4270,8 +4936,23 @@
       <c r="W39">
         <v>0.22</v>
       </c>
+      <c r="X39">
+        <v>-6.74</v>
+      </c>
+      <c r="Y39">
+        <v>97.59</v>
+      </c>
+      <c r="Z39">
+        <v>-5.62</v>
+      </c>
       <c r="AC39" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4279,22 +4960,25 @@
       <c r="AG39">
         <v>4.97272777557373</v>
       </c>
-      <c r="AH39" t="s">
-        <v>214</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300631</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>5.66</v>
@@ -4312,7 +4996,7 @@
         <v>35466.04</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -4353,8 +5037,23 @@
       <c r="W40">
         <v>-0.21</v>
       </c>
+      <c r="X40">
+        <v>-3.77</v>
+      </c>
+      <c r="Y40">
+        <v>38.5</v>
+      </c>
+      <c r="Z40">
+        <v>10.38</v>
+      </c>
       <c r="AC40" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4362,22 +5061,25 @@
       <c r="AG40">
         <v>16.84285736083984</v>
       </c>
-      <c r="AH40" t="s">
-        <v>214</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300637</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-4.43</v>
@@ -4395,7 +5097,7 @@
         <v>26090.19</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4436,8 +5138,23 @@
       <c r="W41">
         <v>-0.7</v>
       </c>
+      <c r="X41">
+        <v>-0.38</v>
+      </c>
+      <c r="Y41">
+        <v>15.99</v>
+      </c>
+      <c r="Z41">
+        <v>0.06</v>
+      </c>
       <c r="AC41" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4445,22 +5162,25 @@
       <c r="AG41">
         <v>4.519252300262451</v>
       </c>
-      <c r="AH41" t="s">
-        <v>214</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300642</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>12.73</v>
@@ -4478,7 +5198,7 @@
         <v>24218.7</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4519,8 +5239,23 @@
       <c r="W42">
         <v>0.57</v>
       </c>
+      <c r="X42">
+        <v>7.45</v>
+      </c>
+      <c r="Y42">
+        <v>26.08</v>
+      </c>
+      <c r="Z42">
+        <v>20.24</v>
+      </c>
       <c r="AC42" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4528,22 +5263,25 @@
       <c r="AG42">
         <v>5.232101440429688</v>
       </c>
-      <c r="AH42" t="s">
-        <v>214</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300671</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.19</v>
@@ -4561,7 +5299,7 @@
         <v>17668.7</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4602,8 +5340,23 @@
       <c r="W43">
         <v>-0.05</v>
       </c>
+      <c r="X43">
+        <v>-1.75</v>
+      </c>
+      <c r="Y43">
+        <v>42.5</v>
+      </c>
+      <c r="Z43">
+        <v>2.34</v>
+      </c>
       <c r="AC43" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4611,22 +5364,25 @@
       <c r="AG43">
         <v>5.034094333648682</v>
       </c>
-      <c r="AH43" t="s">
-        <v>214</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300683</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>4.92</v>
@@ -4644,7 +5400,7 @@
         <v>28302.12</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K44">
         <v>22</v>
@@ -4685,8 +5441,23 @@
       <c r="W44">
         <v>-0.12</v>
       </c>
+      <c r="X44">
+        <v>-2.56</v>
+      </c>
+      <c r="Y44">
+        <v>55.2</v>
+      </c>
+      <c r="Z44">
+        <v>-7.6</v>
+      </c>
       <c r="AC44" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4694,22 +5465,25 @@
       <c r="AG44">
         <v>9.19291877746582</v>
       </c>
-      <c r="AH44" t="s">
-        <v>214</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300684</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-0.73</v>
@@ -4727,7 +5501,7 @@
         <v>50445.62</v>
       </c>
       <c r="J45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K45">
         <v>15</v>
@@ -4768,8 +5542,23 @@
       <c r="W45">
         <v>0.06</v>
       </c>
+      <c r="X45">
+        <v>7.47</v>
+      </c>
+      <c r="Y45">
+        <v>39.58</v>
+      </c>
+      <c r="Z45">
+        <v>7.5</v>
+      </c>
       <c r="AC45" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4777,22 +5566,25 @@
       <c r="AG45">
         <v>5.019515514373779</v>
       </c>
-      <c r="AH45" t="s">
-        <v>214</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300690</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-5.7</v>
@@ -4810,7 +5602,7 @@
         <v>41841.04</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K46">
         <v>7</v>
@@ -4851,8 +5643,23 @@
       <c r="W46">
         <v>-0.87</v>
       </c>
+      <c r="X46">
+        <v>-1.09</v>
+      </c>
+      <c r="Y46">
+        <v>40.48</v>
+      </c>
+      <c r="Z46">
+        <v>3.74</v>
+      </c>
       <c r="AC46" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4860,22 +5667,25 @@
       <c r="AG46">
         <v>4.204168796539307</v>
       </c>
-      <c r="AH46" t="s">
-        <v>214</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300703</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.34</v>
@@ -4893,7 +5703,7 @@
         <v>15561.01</v>
       </c>
       <c r="J47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K47">
         <v>8</v>
@@ -4934,8 +5744,23 @@
       <c r="W47">
         <v>0.18</v>
       </c>
+      <c r="X47">
+        <v>6.52</v>
+      </c>
+      <c r="Y47">
+        <v>38</v>
+      </c>
+      <c r="Z47">
+        <v>9.76</v>
+      </c>
       <c r="AC47" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4943,22 +5768,25 @@
       <c r="AG47">
         <v>4.419079780578613</v>
       </c>
-      <c r="AH47" t="s">
-        <v>214</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300706</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-3.18</v>
@@ -4976,7 +5804,7 @@
         <v>38927.89</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K48">
         <v>18</v>
@@ -5017,8 +5845,23 @@
       <c r="W48">
         <v>-0.43</v>
       </c>
+      <c r="X48">
+        <v>0.47</v>
+      </c>
+      <c r="Y48">
+        <v>50.2</v>
+      </c>
+      <c r="Z48">
+        <v>-0.06</v>
+      </c>
       <c r="AC48" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5026,22 +5869,25 @@
       <c r="AG48">
         <v>2.762239217758179</v>
       </c>
-      <c r="AH48" t="s">
-        <v>214</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300724</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.97</v>
@@ -5059,7 +5905,7 @@
         <v>79627.07000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5100,8 +5946,23 @@
       <c r="W49">
         <v>0.09</v>
       </c>
+      <c r="X49">
+        <v>3.5</v>
+      </c>
+      <c r="Y49">
+        <v>78.2</v>
+      </c>
+      <c r="Z49">
+        <v>1.3</v>
+      </c>
       <c r="AC49" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5109,22 +5970,25 @@
       <c r="AG49">
         <v>3.642183542251587</v>
       </c>
-      <c r="AH49" t="s">
-        <v>214</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300727</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-4.22</v>
@@ -5142,7 +6006,7 @@
         <v>42863.62</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5183,8 +6047,23 @@
       <c r="W50">
         <v>-0.16</v>
       </c>
+      <c r="X50">
+        <v>-3.32</v>
+      </c>
+      <c r="Y50">
+        <v>41.35</v>
+      </c>
+      <c r="Z50">
+        <v>-1.08</v>
+      </c>
       <c r="AC50" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5192,22 +6071,25 @@
       <c r="AG50">
         <v>2.322860956192017</v>
       </c>
-      <c r="AH50" t="s">
-        <v>214</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300730</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.71</v>
@@ -5225,7 +6107,7 @@
         <v>82637.19</v>
       </c>
       <c r="J51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5266,8 +6148,23 @@
       <c r="W51">
         <v>-0.36</v>
       </c>
+      <c r="X51">
+        <v>-4.92</v>
+      </c>
+      <c r="Y51">
+        <v>19.89</v>
+      </c>
+      <c r="Z51">
+        <v>-5.73</v>
+      </c>
       <c r="AC51" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5275,22 +6172,25 @@
       <c r="AG51">
         <v>6.194900512695312</v>
       </c>
-      <c r="AH51" t="s">
-        <v>214</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300731</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-5.88</v>
@@ -5308,7 +6208,7 @@
         <v>46784.56</v>
       </c>
       <c r="J52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K52">
         <v>13</v>
@@ -5349,8 +6249,23 @@
       <c r="W52">
         <v>-0.64</v>
       </c>
+      <c r="X52">
+        <v>-6.48</v>
+      </c>
+      <c r="Y52">
+        <v>53.93</v>
+      </c>
+      <c r="Z52">
+        <v>-3.7</v>
+      </c>
       <c r="AC52" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>1</v>
@@ -5358,22 +6273,25 @@
       <c r="AG52">
         <v>9.879043579101562</v>
       </c>
-      <c r="AH52" t="s">
-        <v>214</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300767</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>5.14</v>
@@ -5391,7 +6309,7 @@
         <v>46849.17</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5432,8 +6350,23 @@
       <c r="W53">
         <v>-0.85</v>
       </c>
+      <c r="X53">
+        <v>-0.8</v>
+      </c>
+      <c r="Y53">
+        <v>22.55</v>
+      </c>
+      <c r="Z53">
+        <v>8</v>
+      </c>
       <c r="AC53" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5441,22 +6374,25 @@
       <c r="AG53">
         <v>15.20828056335449</v>
       </c>
-      <c r="AH53" t="s">
-        <v>214</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300803</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.08</v>
@@ -5474,7 +6410,7 @@
         <v>402694.4</v>
       </c>
       <c r="J54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5515,8 +6451,23 @@
       <c r="W54">
         <v>-0.24</v>
       </c>
+      <c r="X54">
+        <v>-1.78</v>
+      </c>
+      <c r="Y54">
+        <v>127.18</v>
+      </c>
+      <c r="Z54">
+        <v>1.05</v>
+      </c>
       <c r="AC54" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5524,22 +6475,25 @@
       <c r="AG54">
         <v>-0.9515237212181091</v>
       </c>
-      <c r="AH54" t="s">
-        <v>214</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300806</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.5</v>
@@ -5557,7 +6511,7 @@
         <v>20881.07</v>
       </c>
       <c r="J55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5598,8 +6552,23 @@
       <c r="W55">
         <v>0.08</v>
       </c>
+      <c r="X55">
+        <v>13.3</v>
+      </c>
+      <c r="Y55">
+        <v>26.55</v>
+      </c>
+      <c r="Z55">
+        <v>11.09</v>
+      </c>
       <c r="AC55" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5607,22 +6576,25 @@
       <c r="AG55">
         <v>1.451183795928955</v>
       </c>
-      <c r="AH55" t="s">
-        <v>214</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300811</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-3.32</v>
@@ -5640,7 +6612,7 @@
         <v>41857.08</v>
       </c>
       <c r="J56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5681,8 +6653,23 @@
       <c r="W56">
         <v>0.01</v>
       </c>
+      <c r="X56">
+        <v>-3.49</v>
+      </c>
+      <c r="Y56">
+        <v>73.5</v>
+      </c>
+      <c r="Z56">
+        <v>-0.23</v>
+      </c>
       <c r="AC56" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5690,22 +6677,25 @@
       <c r="AG56">
         <v>6.362460613250732</v>
       </c>
-      <c r="AH56" t="s">
-        <v>214</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300814</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.9</v>
@@ -5723,7 +6713,7 @@
         <v>43864.14</v>
       </c>
       <c r="J57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5764,8 +6754,23 @@
       <c r="W57">
         <v>-0.19</v>
       </c>
+      <c r="X57">
+        <v>-3.34</v>
+      </c>
+      <c r="Y57">
+        <v>48.57</v>
+      </c>
+      <c r="Z57">
+        <v>-2.25</v>
+      </c>
       <c r="AC57" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5773,22 +6778,25 @@
       <c r="AG57">
         <v>3.926549673080444</v>
       </c>
-      <c r="AH57" t="s">
-        <v>214</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300815</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-5.46</v>
@@ -5806,7 +6814,7 @@
         <v>48780.02</v>
       </c>
       <c r="J58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5847,8 +6855,23 @@
       <c r="W58">
         <v>-0.27</v>
       </c>
+      <c r="X58">
+        <v>-1.55</v>
+      </c>
+      <c r="Y58">
+        <v>28.87</v>
+      </c>
+      <c r="Z58">
+        <v>-1.43</v>
+      </c>
       <c r="AC58" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5856,22 +6879,25 @@
       <c r="AG58">
         <v>5.216513156890869</v>
       </c>
-      <c r="AH58" t="s">
-        <v>214</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300835</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-1.13</v>
@@ -5889,7 +6915,7 @@
         <v>24988.13</v>
       </c>
       <c r="J59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K59">
         <v>21</v>
@@ -5930,8 +6956,23 @@
       <c r="W59">
         <v>-0.32</v>
       </c>
+      <c r="X59">
+        <v>-0.99</v>
+      </c>
+      <c r="Y59">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>0.11</v>
+      </c>
       <c r="AC59" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5939,22 +6980,25 @@
       <c r="AG59">
         <v>-0.5492900609970093</v>
       </c>
-      <c r="AH59" t="s">
-        <v>214</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300843</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-6.06</v>
@@ -5972,7 +7016,7 @@
         <v>41376.62</v>
       </c>
       <c r="J60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -6013,8 +7057,23 @@
       <c r="W60">
         <v>-0.14</v>
       </c>
+      <c r="X60">
+        <v>-5.27</v>
+      </c>
+      <c r="Y60">
+        <v>47.93</v>
+      </c>
+      <c r="Z60">
+        <v>-1.88</v>
+      </c>
       <c r="AC60" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -6022,22 +7081,25 @@
       <c r="AG60">
         <v>7.435842990875244</v>
       </c>
-      <c r="AH60" t="s">
-        <v>214</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300870</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.2</v>
@@ -6055,7 +7117,7 @@
         <v>72515.16</v>
       </c>
       <c r="J61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -6096,8 +7158,23 @@
       <c r="W61">
         <v>0.12</v>
       </c>
+      <c r="X61">
+        <v>-3.77</v>
+      </c>
+      <c r="Y61">
+        <v>249.85</v>
+      </c>
+      <c r="Z61">
+        <v>0.14</v>
+      </c>
       <c r="AC61" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6105,22 +7182,25 @@
       <c r="AG61">
         <v>13.22481441497803</v>
       </c>
-      <c r="AH61" t="s">
-        <v>214</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300902</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.44</v>
@@ -6138,7 +7218,7 @@
         <v>11753.62</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6179,8 +7259,23 @@
       <c r="W62">
         <v>-0.23</v>
       </c>
+      <c r="X62">
+        <v>-0.32</v>
+      </c>
+      <c r="Y62">
+        <v>33.38</v>
+      </c>
+      <c r="Z62">
+        <v>13.27</v>
+      </c>
       <c r="AC62" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6188,22 +7283,25 @@
       <c r="AG62">
         <v>6.871248722076416</v>
       </c>
-      <c r="AH62" t="s">
-        <v>214</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>300907</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>7.89</v>
@@ -6221,7 +7319,7 @@
         <v>35231.94</v>
       </c>
       <c r="J63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6262,8 +7360,23 @@
       <c r="W63">
         <v>0.66</v>
       </c>
+      <c r="X63">
+        <v>-4.69</v>
+      </c>
+      <c r="Y63">
+        <v>41.24</v>
+      </c>
+      <c r="Z63">
+        <v>0.17</v>
+      </c>
       <c r="AC63" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6271,22 +7384,25 @@
       <c r="AG63">
         <v>-0.6494232416152954</v>
       </c>
-      <c r="AH63" t="s">
-        <v>214</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>300990</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-4.13</v>
@@ -6304,7 +7420,7 @@
         <v>20987.52</v>
       </c>
       <c r="J64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6345,8 +7461,23 @@
       <c r="W64">
         <v>-0.09</v>
       </c>
+      <c r="X64">
+        <v>-2.19</v>
+      </c>
+      <c r="Y64">
+        <v>78.3</v>
+      </c>
+      <c r="Z64">
+        <v>5.44</v>
+      </c>
       <c r="AC64" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6354,22 +7485,25 @@
       <c r="AG64">
         <v>2.533939838409424</v>
       </c>
-      <c r="AH64" t="s">
-        <v>214</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301007</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-0.71</v>
@@ -6387,7 +7521,7 @@
         <v>11527.48</v>
       </c>
       <c r="J65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6428,8 +7562,23 @@
       <c r="W65">
         <v>0.04</v>
       </c>
+      <c r="X65">
+        <v>3.69</v>
+      </c>
+      <c r="Y65">
+        <v>50.1</v>
+      </c>
+      <c r="Z65">
+        <v>16</v>
+      </c>
       <c r="AC65" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6437,22 +7586,25 @@
       <c r="AG65">
         <v>10.3935604095459</v>
       </c>
-      <c r="AH65" t="s">
-        <v>214</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301018</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-4.99</v>
@@ -6470,7 +7622,7 @@
         <v>49788.3</v>
       </c>
       <c r="J66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6511,8 +7663,23 @@
       <c r="W66">
         <v>-0.02</v>
       </c>
+      <c r="X66">
+        <v>1.98</v>
+      </c>
+      <c r="Y66">
+        <v>71.5</v>
+      </c>
+      <c r="Z66">
+        <v>2.52</v>
+      </c>
       <c r="AC66" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6520,22 +7687,25 @@
       <c r="AG66">
         <v>1.046830058097839</v>
       </c>
-      <c r="AH66" t="s">
-        <v>214</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301021</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.61</v>
@@ -6553,7 +7723,7 @@
         <v>9602.379999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K67">
         <v>6</v>
@@ -6594,8 +7764,23 @@
       <c r="W67">
         <v>-0.15</v>
       </c>
+      <c r="X67">
+        <v>-1.2</v>
+      </c>
+      <c r="Y67">
+        <v>36.76</v>
+      </c>
+      <c r="Z67">
+        <v>-2.39</v>
+      </c>
       <c r="AC67" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6603,22 +7788,25 @@
       <c r="AG67">
         <v>0.9817689657211304</v>
       </c>
-      <c r="AH67" t="s">
-        <v>214</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301038</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0.33</v>
@@ -6636,7 +7824,7 @@
         <v>23061.61</v>
       </c>
       <c r="J68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K68">
         <v>16</v>
@@ -6677,8 +7865,23 @@
       <c r="W68">
         <v>-0.15</v>
       </c>
+      <c r="X68">
+        <v>-0.77</v>
+      </c>
+      <c r="Y68">
+        <v>35.07</v>
+      </c>
+      <c r="Z68">
+        <v>-3.31</v>
+      </c>
       <c r="AC68" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6686,22 +7889,25 @@
       <c r="AG68">
         <v>1.316103935241699</v>
       </c>
-      <c r="AH68" t="s">
-        <v>214</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301069</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-4.3</v>
@@ -6719,7 +7925,7 @@
         <v>28325.4</v>
       </c>
       <c r="J69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -6760,8 +7966,23 @@
       <c r="W69">
         <v>-0.33</v>
       </c>
+      <c r="X69">
+        <v>1.2</v>
+      </c>
+      <c r="Y69">
+        <v>26.58</v>
+      </c>
+      <c r="Z69">
+        <v>8.529999999999999</v>
+      </c>
       <c r="AC69" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6769,22 +7990,25 @@
       <c r="AG69">
         <v>7.721874713897705</v>
       </c>
-      <c r="AH69" t="s">
-        <v>214</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301076</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-4.94</v>
@@ -6802,7 +8026,7 @@
         <v>58957.32</v>
       </c>
       <c r="J70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -6843,8 +8067,23 @@
       <c r="W70">
         <v>-1.23</v>
       </c>
+      <c r="X70">
+        <v>-3.61</v>
+      </c>
+      <c r="Y70">
+        <v>60.95</v>
+      </c>
+      <c r="Z70">
+        <v>2.09</v>
+      </c>
       <c r="AC70" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6852,22 +8091,25 @@
       <c r="AG70">
         <v>13.25899600982666</v>
       </c>
-      <c r="AH70" t="s">
-        <v>214</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301095</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-1.65</v>
@@ -6885,7 +8127,7 @@
         <v>32887.84</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K71">
         <v>15</v>
@@ -6926,8 +8168,23 @@
       <c r="W71">
         <v>0.02</v>
       </c>
+      <c r="X71">
+        <v>0.6</v>
+      </c>
+      <c r="Y71">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="Z71">
+        <v>-3.17</v>
+      </c>
       <c r="AC71" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6935,22 +8192,25 @@
       <c r="AG71">
         <v>1.460652112960815</v>
       </c>
-      <c r="AH71" t="s">
-        <v>214</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301120</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>4.98</v>
@@ -6968,7 +8228,7 @@
         <v>48604.1</v>
       </c>
       <c r="J72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K72">
         <v>11</v>
@@ -7009,8 +8269,23 @@
       <c r="W72">
         <v>-0.2</v>
       </c>
+      <c r="X72">
+        <v>-3.1</v>
+      </c>
+      <c r="Y72">
+        <v>16.5</v>
+      </c>
+      <c r="Z72">
+        <v>0.43</v>
+      </c>
       <c r="AC72" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7018,22 +8293,25 @@
       <c r="AG72">
         <v>5.03960132598877</v>
       </c>
-      <c r="AH72" t="s">
-        <v>214</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301123</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-3.98</v>
@@ -7051,7 +8329,7 @@
         <v>40931.97</v>
       </c>
       <c r="J73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K73">
         <v>11</v>
@@ -7092,8 +8370,23 @@
       <c r="W73">
         <v>-0.06</v>
       </c>
+      <c r="X73">
+        <v>-5.46</v>
+      </c>
+      <c r="Y73">
+        <v>48</v>
+      </c>
+      <c r="Z73">
+        <v>5.7</v>
+      </c>
       <c r="AC73" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7101,22 +8394,25 @@
       <c r="AG73">
         <v>11.01965808868408</v>
       </c>
-      <c r="AH73" t="s">
-        <v>214</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301128</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-1.89</v>
@@ -7134,7 +8430,7 @@
         <v>70498.8</v>
       </c>
       <c r="J74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7175,8 +8471,23 @@
       <c r="W74">
         <v>-0.35</v>
       </c>
+      <c r="X74">
+        <v>-1.27</v>
+      </c>
+      <c r="Y74">
+        <v>101.66</v>
+      </c>
+      <c r="Z74">
+        <v>16.05</v>
+      </c>
       <c r="AC74" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7184,22 +8495,25 @@
       <c r="AG74">
         <v>3.051471948623657</v>
       </c>
-      <c r="AH74" t="s">
-        <v>214</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301151</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>3.58</v>
@@ -7217,7 +8531,7 @@
         <v>39529.52</v>
       </c>
       <c r="J75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7258,8 +8572,23 @@
       <c r="W75">
         <v>-0.24</v>
       </c>
+      <c r="X75">
+        <v>-2.7</v>
+      </c>
+      <c r="Y75">
+        <v>25.69</v>
+      </c>
+      <c r="Z75">
+        <v>-5.55</v>
+      </c>
       <c r="AC75" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7267,22 +8596,25 @@
       <c r="AG75">
         <v>4.410556316375732</v>
       </c>
-      <c r="AH75" t="s">
-        <v>214</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301161</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-1.59</v>
@@ -7300,7 +8632,7 @@
         <v>15684.31</v>
       </c>
       <c r="J76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K76">
         <v>12</v>
@@ -7341,8 +8673,23 @@
       <c r="W76">
         <v>-0.13</v>
       </c>
+      <c r="X76">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y76">
+        <v>46.06</v>
+      </c>
+      <c r="Z76">
+        <v>3.16</v>
+      </c>
       <c r="AC76" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7350,22 +8697,25 @@
       <c r="AG76">
         <v>5.062551975250244</v>
       </c>
-      <c r="AH76" t="s">
-        <v>214</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301165</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.64</v>
@@ -7383,7 +8733,7 @@
         <v>102518.3</v>
       </c>
       <c r="J77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K77">
         <v>6</v>
@@ -7424,8 +8774,23 @@
       <c r="W77">
         <v>-0.24</v>
       </c>
+      <c r="X77">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y77">
+        <v>85</v>
+      </c>
+      <c r="Z77">
+        <v>3.19</v>
+      </c>
       <c r="AC77" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7433,22 +8798,25 @@
       <c r="AG77">
         <v>6.625031471252441</v>
       </c>
-      <c r="AH77" t="s">
-        <v>214</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301181</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-5.09</v>
@@ -7466,7 +8834,7 @@
         <v>11851.9</v>
       </c>
       <c r="J78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K78">
         <v>5</v>
@@ -7507,8 +8875,23 @@
       <c r="W78">
         <v>-1.1</v>
       </c>
+      <c r="X78">
+        <v>-0.7</v>
+      </c>
+      <c r="Y78">
+        <v>32.86</v>
+      </c>
+      <c r="Z78">
+        <v>-0.45</v>
+      </c>
       <c r="AC78" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7516,22 +8899,25 @@
       <c r="AG78">
         <v>0.6518779993057251</v>
       </c>
-      <c r="AH78" t="s">
-        <v>214</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301183</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>2.75</v>
@@ -7549,7 +8935,7 @@
         <v>40874.58</v>
       </c>
       <c r="J79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7590,8 +8976,23 @@
       <c r="W79">
         <v>-0.03</v>
       </c>
+      <c r="X79">
+        <v>-3.17</v>
+      </c>
+      <c r="Y79">
+        <v>80.36</v>
+      </c>
+      <c r="Z79">
+        <v>6.58</v>
+      </c>
       <c r="AC79" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7599,22 +9000,25 @@
       <c r="AG79">
         <v>7.000473976135254</v>
       </c>
-      <c r="AH79" t="s">
-        <v>214</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301202</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-0.31</v>
@@ -7632,7 +9036,7 @@
         <v>13719</v>
       </c>
       <c r="J80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7673,8 +9077,23 @@
       <c r="W80">
         <v>-0.39</v>
       </c>
+      <c r="X80">
+        <v>1.12</v>
+      </c>
+      <c r="Y80">
+        <v>52.69</v>
+      </c>
+      <c r="Z80">
+        <v>0.8</v>
+      </c>
       <c r="AC80" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7682,22 +9101,25 @@
       <c r="AG80">
         <v>1.429799437522888</v>
       </c>
-      <c r="AH80" t="s">
-        <v>214</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301205</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>13.19</v>
@@ -7715,7 +9137,7 @@
         <v>71926.48</v>
       </c>
       <c r="J81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7756,8 +9178,23 @@
       <c r="W81">
         <v>0.71</v>
       </c>
+      <c r="X81">
+        <v>-1.9</v>
+      </c>
+      <c r="Y81">
+        <v>111.5</v>
+      </c>
+      <c r="Z81">
+        <v>-5.03</v>
+      </c>
       <c r="AC81" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7765,22 +9202,25 @@
       <c r="AG81">
         <v>11.47654247283936</v>
       </c>
-      <c r="AH81" t="s">
-        <v>215</v>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301217</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-3.44</v>
@@ -7798,7 +9238,7 @@
         <v>62286.14</v>
       </c>
       <c r="J82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K82">
         <v>32</v>
@@ -7839,8 +9279,23 @@
       <c r="W82">
         <v>-0.15</v>
       </c>
+      <c r="X82">
+        <v>1.24</v>
+      </c>
+      <c r="Y82">
+        <v>33.95</v>
+      </c>
+      <c r="Z82">
+        <v>5.3</v>
+      </c>
       <c r="AC82" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -7848,22 +9303,25 @@
       <c r="AG82">
         <v>6.757303237915039</v>
       </c>
-      <c r="AH82" t="s">
-        <v>214</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301226</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-1.86</v>
@@ -7881,7 +9339,7 @@
         <v>36368.39</v>
       </c>
       <c r="J83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7922,8 +9380,23 @@
       <c r="W83">
         <v>-0.75</v>
       </c>
+      <c r="X83">
+        <v>-5.77</v>
+      </c>
+      <c r="Y83">
+        <v>40.34</v>
+      </c>
+      <c r="Z83">
+        <v>2.15</v>
+      </c>
       <c r="AC83" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7931,22 +9404,25 @@
       <c r="AG83">
         <v>0.6500114798545837</v>
       </c>
-      <c r="AH83" t="s">
-        <v>214</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301235</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0.09</v>
@@ -7964,7 +9440,7 @@
         <v>17136.43</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8005,8 +9481,23 @@
       <c r="W84">
         <v>-0.77</v>
       </c>
+      <c r="X84">
+        <v>-0.82</v>
+      </c>
+      <c r="Y84">
+        <v>33.51</v>
+      </c>
+      <c r="Z84">
+        <v>0.6</v>
+      </c>
       <c r="AC84" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -8014,22 +9505,25 @@
       <c r="AG84">
         <v>9.877413749694824</v>
       </c>
-      <c r="AH84" t="s">
-        <v>214</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301251</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-2.23</v>
@@ -8047,7 +9541,7 @@
         <v>24813.57</v>
       </c>
       <c r="J85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -8088,8 +9582,23 @@
       <c r="W85">
         <v>-0.61</v>
       </c>
+      <c r="X85">
+        <v>-3.93</v>
+      </c>
+      <c r="Y85">
+        <v>59.19</v>
+      </c>
+      <c r="Z85">
+        <v>-2.9</v>
+      </c>
       <c r="AC85" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8097,22 +9606,25 @@
       <c r="AG85">
         <v>6.773001670837402</v>
       </c>
-      <c r="AH85" t="s">
-        <v>214</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301323</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-1.24</v>
@@ -8130,7 +9642,7 @@
         <v>10979.24</v>
       </c>
       <c r="J86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K86">
         <v>6</v>
@@ -8171,8 +9683,23 @@
       <c r="W86">
         <v>-0.05</v>
       </c>
+      <c r="X86">
+        <v>0.3</v>
+      </c>
+      <c r="Y86">
+        <v>62.5</v>
+      </c>
+      <c r="Z86">
+        <v>3.63</v>
+      </c>
       <c r="AC86" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8180,22 +9707,25 @@
       <c r="AG86">
         <v>5.700248718261719</v>
       </c>
-      <c r="AH86" t="s">
-        <v>214</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301326</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-4.03</v>
@@ -8213,7 +9743,7 @@
         <v>20447.68</v>
       </c>
       <c r="J87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K87">
         <v>8</v>
@@ -8254,8 +9784,23 @@
       <c r="W87">
         <v>-0.85</v>
       </c>
+      <c r="X87">
+        <v>-3.55</v>
+      </c>
+      <c r="Y87">
+        <v>107.69</v>
+      </c>
+      <c r="Z87">
+        <v>1.54</v>
+      </c>
       <c r="AC87" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8263,22 +9808,25 @@
       <c r="AG87">
         <v>11.06202507019043</v>
       </c>
-      <c r="AH87" t="s">
-        <v>214</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301357</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>0.74</v>
@@ -8296,7 +9844,7 @@
         <v>53331.77</v>
       </c>
       <c r="J88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K88">
         <v>16</v>
@@ -8337,8 +9885,23 @@
       <c r="W88">
         <v>-0.18</v>
       </c>
+      <c r="X88">
+        <v>-2.49</v>
+      </c>
+      <c r="Y88">
+        <v>182.96</v>
+      </c>
+      <c r="Z88">
+        <v>6.28</v>
+      </c>
       <c r="AC88" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8346,22 +9909,25 @@
       <c r="AG88">
         <v>2.750333547592163</v>
       </c>
-      <c r="AH88" t="s">
-        <v>214</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301389</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.07</v>
@@ -8379,7 +9945,7 @@
         <v>28703.73</v>
       </c>
       <c r="J89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K89">
         <v>31</v>
@@ -8420,8 +9986,23 @@
       <c r="W89">
         <v>0.18</v>
       </c>
+      <c r="X89">
+        <v>-0.77</v>
+      </c>
+      <c r="Y89">
+        <v>52.68</v>
+      </c>
+      <c r="Z89">
+        <v>0.04</v>
+      </c>
       <c r="AC89" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8429,22 +10010,25 @@
       <c r="AG89">
         <v>2.247100591659546</v>
       </c>
-      <c r="AH89" t="s">
-        <v>214</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301392</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>0.5</v>
@@ -8462,7 +10046,7 @@
         <v>14137.2</v>
       </c>
       <c r="J90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -8503,8 +10087,23 @@
       <c r="W90">
         <v>-0.02</v>
       </c>
+      <c r="X90">
+        <v>7.34</v>
+      </c>
+      <c r="Y90">
+        <v>183.07</v>
+      </c>
+      <c r="Z90">
+        <v>4.52</v>
+      </c>
       <c r="AC90" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8512,22 +10111,25 @@
       <c r="AG90">
         <v>5.928770542144775</v>
       </c>
-      <c r="AH90" t="s">
-        <v>214</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301397</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>0.98</v>
@@ -8545,7 +10147,7 @@
         <v>34059.68</v>
       </c>
       <c r="J91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K91">
         <v>9</v>
@@ -8586,8 +10188,23 @@
       <c r="W91">
         <v>-0.15</v>
       </c>
+      <c r="X91">
+        <v>-2.89</v>
+      </c>
+      <c r="Y91">
+        <v>46.1</v>
+      </c>
+      <c r="Z91">
+        <v>-7.02</v>
+      </c>
       <c r="AC91" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8595,22 +10212,25 @@
       <c r="AG91">
         <v>9.92957878112793</v>
       </c>
-      <c r="AH91" t="s">
-        <v>214</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301398</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>3.2</v>
@@ -8628,7 +10248,7 @@
         <v>30944.76</v>
       </c>
       <c r="J92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -8669,8 +10289,23 @@
       <c r="W92">
         <v>0.14</v>
       </c>
+      <c r="X92">
+        <v>0.74</v>
+      </c>
+      <c r="Y92">
+        <v>59.58</v>
+      </c>
+      <c r="Z92">
+        <v>9.34</v>
+      </c>
       <c r="AC92" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8678,22 +10313,25 @@
       <c r="AG92">
         <v>4.258490085601807</v>
       </c>
-      <c r="AH92" t="s">
-        <v>214</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>301486</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-3.06</v>
@@ -8711,7 +10349,7 @@
         <v>29347.59</v>
       </c>
       <c r="J93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K93">
         <v>5</v>
@@ -8752,8 +10390,23 @@
       <c r="W93">
         <v>-0.29</v>
       </c>
+      <c r="X93">
+        <v>-4.81</v>
+      </c>
+      <c r="Y93">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="Z93">
+        <v>-4.58</v>
+      </c>
       <c r="AC93" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8761,22 +10414,25 @@
       <c r="AG93">
         <v>3.037453651428223</v>
       </c>
-      <c r="AH93" t="s">
-        <v>214</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>301489</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>4.39</v>
@@ -8794,7 +10450,7 @@
         <v>48645.15</v>
       </c>
       <c r="J94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K94">
         <v>14</v>
@@ -8835,8 +10491,23 @@
       <c r="W94">
         <v>0.24</v>
       </c>
+      <c r="X94">
+        <v>-3.47</v>
+      </c>
+      <c r="Y94">
+        <v>188.88</v>
+      </c>
+      <c r="Z94">
+        <v>6.11</v>
+      </c>
       <c r="AC94" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8844,22 +10515,25 @@
       <c r="AG94">
         <v>0.6984938383102417</v>
       </c>
-      <c r="AH94" t="s">
-        <v>214</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>301511</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-2.01</v>
@@ -8877,7 +10551,7 @@
         <v>41329.49</v>
       </c>
       <c r="J95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K95">
         <v>41</v>
@@ -8918,8 +10592,23 @@
       <c r="W95">
         <v>-0.25</v>
       </c>
+      <c r="X95">
+        <v>-2.99</v>
+      </c>
+      <c r="Y95">
+        <v>40.55</v>
+      </c>
+      <c r="Z95">
+        <v>3.95</v>
+      </c>
       <c r="AC95" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8927,22 +10616,25 @@
       <c r="AG95">
         <v>-7.0291748046875</v>
       </c>
-      <c r="AH95" t="s">
-        <v>214</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>301526</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-3.71</v>
@@ -8960,7 +10652,7 @@
         <v>95379.75999999999</v>
       </c>
       <c r="J96" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K96">
         <v>9</v>
@@ -9001,8 +10693,23 @@
       <c r="W96">
         <v>0.21</v>
       </c>
+      <c r="X96">
+        <v>-2.28</v>
+      </c>
+      <c r="Y96">
+        <v>6.67</v>
+      </c>
+      <c r="Z96">
+        <v>-1.19</v>
+      </c>
       <c r="AC96" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>1</v>
@@ -9010,22 +10717,25 @@
       <c r="AG96">
         <v>7.514434337615967</v>
       </c>
-      <c r="AH96" t="s">
-        <v>215</v>
+      <c r="AH96">
+        <v>1</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>301626</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-2.98</v>
@@ -9043,7 +10753,7 @@
         <v>12991.81</v>
       </c>
       <c r="J97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -9084,8 +10794,23 @@
       <c r="W97">
         <v>-0.17</v>
       </c>
+      <c r="X97">
+        <v>9.17</v>
+      </c>
+      <c r="Y97">
+        <v>180.63</v>
+      </c>
+      <c r="Z97">
+        <v>17.14</v>
+      </c>
       <c r="AC97" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9093,22 +10818,25 @@
       <c r="AG97">
         <v>1.59231960773468</v>
       </c>
-      <c r="AH97" t="s">
-        <v>214</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688035</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>0.93</v>
@@ -9126,7 +10854,7 @@
         <v>35512.67</v>
       </c>
       <c r="J98" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9167,8 +10895,23 @@
       <c r="W98">
         <v>0.62</v>
       </c>
+      <c r="X98">
+        <v>1.58</v>
+      </c>
+      <c r="Y98">
+        <v>63.03</v>
+      </c>
+      <c r="Z98">
+        <v>9.029999999999999</v>
+      </c>
       <c r="AC98" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9176,22 +10919,25 @@
       <c r="AG98">
         <v>-0.04279530793428421</v>
       </c>
-      <c r="AH98" t="s">
-        <v>214</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688108</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>11.81</v>
@@ -9209,7 +10955,7 @@
         <v>119577.37</v>
       </c>
       <c r="J99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K99">
         <v>7</v>
@@ -9250,8 +10996,23 @@
       <c r="W99">
         <v>-0.59</v>
       </c>
+      <c r="X99">
+        <v>-7.77</v>
+      </c>
+      <c r="Y99">
+        <v>41.85</v>
+      </c>
+      <c r="Z99">
+        <v>-9.77</v>
+      </c>
       <c r="AC99" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9259,22 +11020,25 @@
       <c r="AG99">
         <v>21.15896034240723</v>
       </c>
-      <c r="AH99" t="s">
-        <v>214</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688110</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>-3.8</v>
@@ -9292,7 +11056,7 @@
         <v>127358.23</v>
       </c>
       <c r="J100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K100">
         <v>16</v>
@@ -9333,8 +11097,23 @@
       <c r="W100">
         <v>-0.47</v>
       </c>
+      <c r="X100">
+        <v>-3.75</v>
+      </c>
+      <c r="Y100">
+        <v>102.98</v>
+      </c>
+      <c r="Z100">
+        <v>2.94</v>
+      </c>
       <c r="AC100" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9342,22 +11121,25 @@
       <c r="AG100">
         <v>-1.590656161308289</v>
       </c>
-      <c r="AH100" t="s">
-        <v>214</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688146</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>0.02</v>
@@ -9375,7 +11157,7 @@
         <v>21673.96</v>
       </c>
       <c r="J101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K101">
         <v>5</v>
@@ -9416,8 +11198,23 @@
       <c r="W101">
         <v>0.27</v>
       </c>
+      <c r="X101">
+        <v>1.77</v>
+      </c>
+      <c r="Y101">
+        <v>40.48</v>
+      </c>
+      <c r="Z101">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="AC101" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9425,22 +11222,25 @@
       <c r="AG101">
         <v>3.242537975311279</v>
       </c>
-      <c r="AH101" t="s">
-        <v>214</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688147</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>-0.5</v>
@@ -9458,7 +11258,7 @@
         <v>13433.59</v>
       </c>
       <c r="J102" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9499,8 +11299,23 @@
       <c r="W102">
         <v>-0.18</v>
       </c>
+      <c r="X102">
+        <v>1.71</v>
+      </c>
+      <c r="Y102">
+        <v>38.09</v>
+      </c>
+      <c r="Z102">
+        <v>0.74</v>
+      </c>
       <c r="AC102" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9508,22 +11323,25 @@
       <c r="AG102">
         <v>2.021854877471924</v>
       </c>
-      <c r="AH102" t="s">
-        <v>214</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688167</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>3.4</v>
@@ -9541,7 +11359,7 @@
         <v>45602.63</v>
       </c>
       <c r="J103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K103">
         <v>10</v>
@@ -9582,8 +11400,23 @@
       <c r="W103">
         <v>0.43</v>
       </c>
+      <c r="X103">
+        <v>3.56</v>
+      </c>
+      <c r="Y103">
+        <v>133</v>
+      </c>
+      <c r="Z103">
+        <v>12.26</v>
+      </c>
       <c r="AC103" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9591,22 +11424,25 @@
       <c r="AG103">
         <v>3.733340740203857</v>
       </c>
-      <c r="AH103" t="s">
-        <v>214</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688189</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>6.74</v>
@@ -9624,7 +11460,7 @@
         <v>40927.87</v>
       </c>
       <c r="J104" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -9665,8 +11501,23 @@
       <c r="W104">
         <v>-0.01</v>
       </c>
+      <c r="X104">
+        <v>-6.39</v>
+      </c>
+      <c r="Y104">
+        <v>16.08</v>
+      </c>
+      <c r="Z104">
+        <v>-6.89</v>
+      </c>
       <c r="AC104" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9674,22 +11525,25 @@
       <c r="AG104">
         <v>1.640528798103333</v>
       </c>
-      <c r="AH104" t="s">
-        <v>214</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688195</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>7.3</v>
@@ -9707,7 +11561,7 @@
         <v>99866.52</v>
       </c>
       <c r="J105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9748,8 +11602,23 @@
       <c r="W105">
         <v>-1.07</v>
       </c>
+      <c r="X105">
+        <v>0.1</v>
+      </c>
+      <c r="Y105">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="Z105">
+        <v>-1.18</v>
+      </c>
       <c r="AC105" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>1</v>
@@ -9757,22 +11626,25 @@
       <c r="AG105">
         <v>7.902647972106934</v>
       </c>
-      <c r="AH105" t="s">
-        <v>214</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688199</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>-1.33</v>
@@ -9790,7 +11662,7 @@
         <v>14163.26</v>
       </c>
       <c r="J106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K106">
         <v>5</v>
@@ -9831,8 +11703,23 @@
       <c r="W106">
         <v>0.02</v>
       </c>
+      <c r="X106">
+        <v>1.48</v>
+      </c>
+      <c r="Y106">
+        <v>29.69</v>
+      </c>
+      <c r="Z106">
+        <v>0.13</v>
+      </c>
       <c r="AC106" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9840,22 +11727,25 @@
       <c r="AG106">
         <v>7.577240943908691</v>
       </c>
-      <c r="AH106" t="s">
-        <v>214</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688202</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>3.49</v>
@@ -9873,7 +11763,7 @@
         <v>26330.78</v>
       </c>
       <c r="J107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K107">
         <v>5</v>
@@ -9914,8 +11804,23 @@
       <c r="W107">
         <v>0.11</v>
       </c>
+      <c r="X107">
+        <v>-3.35</v>
+      </c>
+      <c r="Y107">
+        <v>64</v>
+      </c>
+      <c r="Z107">
+        <v>-7.29</v>
+      </c>
       <c r="AC107" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9923,22 +11828,25 @@
       <c r="AG107">
         <v>5.812849998474121</v>
       </c>
-      <c r="AH107" t="s">
-        <v>214</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688270</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>3.7</v>
@@ -9956,7 +11864,7 @@
         <v>50035.22</v>
       </c>
       <c r="J108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K108">
         <v>5</v>
@@ -9997,8 +11905,23 @@
       <c r="W108">
         <v>-0.04</v>
       </c>
+      <c r="X108">
+        <v>-3.39</v>
+      </c>
+      <c r="Y108">
+        <v>74</v>
+      </c>
+      <c r="Z108">
+        <v>2.78</v>
+      </c>
       <c r="AC108" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>1</v>
@@ -10006,22 +11929,25 @@
       <c r="AG108">
         <v>3.802881956100464</v>
       </c>
-      <c r="AH108" t="s">
-        <v>214</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688313</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>1.01</v>
@@ -10039,7 +11965,7 @@
         <v>91265.56</v>
       </c>
       <c r="J109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K109">
         <v>6</v>
@@ -10080,8 +12006,23 @@
       <c r="W109">
         <v>-0.04</v>
       </c>
+      <c r="X109">
+        <v>-2.36</v>
+      </c>
+      <c r="Y109">
+        <v>63.02</v>
+      </c>
+      <c r="Z109">
+        <v>-4.44</v>
+      </c>
       <c r="AC109" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>1</v>
@@ -10089,22 +12030,25 @@
       <c r="AG109">
         <v>11.22679996490479</v>
       </c>
-      <c r="AH109" t="s">
-        <v>214</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688379</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>-0.5</v>
@@ -10122,7 +12066,7 @@
         <v>17678.86</v>
       </c>
       <c r="J110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K110">
         <v>8</v>
@@ -10163,8 +12107,23 @@
       <c r="W110">
         <v>-0.19</v>
       </c>
+      <c r="X110">
+        <v>0.17</v>
+      </c>
+      <c r="Y110">
+        <v>68.47</v>
+      </c>
+      <c r="Z110">
+        <v>2.13</v>
+      </c>
       <c r="AC110" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10172,22 +12131,25 @@
       <c r="AG110">
         <v>6.332064628601074</v>
       </c>
-      <c r="AH110" t="s">
-        <v>214</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688448</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>0.02</v>
@@ -10205,7 +12167,7 @@
         <v>20672.61</v>
       </c>
       <c r="J111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K111">
         <v>5</v>
@@ -10246,8 +12208,23 @@
       <c r="W111">
         <v>-0.49</v>
       </c>
+      <c r="X111">
+        <v>-5.57</v>
+      </c>
+      <c r="Y111">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="Z111">
+        <v>-0.06</v>
+      </c>
       <c r="AC111" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10255,22 +12232,25 @@
       <c r="AG111">
         <v>-0.04638954997062683</v>
       </c>
-      <c r="AH111" t="s">
-        <v>214</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688499</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>1.44</v>
@@ -10288,7 +12268,7 @@
         <v>18971.09</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K112">
         <v>46</v>
@@ -10329,8 +12309,23 @@
       <c r="W112">
         <v>-0.06</v>
       </c>
+      <c r="X112">
+        <v>7.34</v>
+      </c>
+      <c r="Y112">
+        <v>67</v>
+      </c>
+      <c r="Z112">
+        <v>5.93</v>
+      </c>
       <c r="AC112" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>1</v>
@@ -10338,22 +12333,25 @@
       <c r="AG112">
         <v>9.589626312255859</v>
       </c>
-      <c r="AH112" t="s">
-        <v>214</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688502</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>-1.75</v>
@@ -10371,7 +12369,7 @@
         <v>11160.91</v>
       </c>
       <c r="J113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K113">
         <v>17</v>
@@ -10412,8 +12410,23 @@
       <c r="W113">
         <v>-0.17</v>
       </c>
+      <c r="X113">
+        <v>9.66</v>
+      </c>
+      <c r="Y113">
+        <v>433.33</v>
+      </c>
+      <c r="Z113">
+        <v>14.44</v>
+      </c>
       <c r="AC113" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>1</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10421,22 +12434,25 @@
       <c r="AG113">
         <v>7.423468589782715</v>
       </c>
-      <c r="AH113" t="s">
-        <v>214</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688556</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>3.54</v>
@@ -10454,7 +12470,7 @@
         <v>15508.12</v>
       </c>
       <c r="J114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K114">
         <v>17</v>
@@ -10495,8 +12511,23 @@
       <c r="W114">
         <v>0.15</v>
       </c>
+      <c r="X114">
+        <v>-1.53</v>
+      </c>
+      <c r="Y114">
+        <v>13.02</v>
+      </c>
+      <c r="Z114">
+        <v>5.85</v>
+      </c>
       <c r="AC114" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10504,22 +12535,25 @@
       <c r="AG114">
         <v>4.524059295654297</v>
       </c>
-      <c r="AH114" t="s">
-        <v>214</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688584</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>-3.37</v>
@@ -10537,7 +12571,7 @@
         <v>17253.89</v>
       </c>
       <c r="J115" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K115">
         <v>5</v>
@@ -10578,8 +12612,23 @@
       <c r="W115">
         <v>0.02</v>
       </c>
+      <c r="X115">
+        <v>12.46</v>
+      </c>
+      <c r="Y115">
+        <v>28.97</v>
+      </c>
+      <c r="Z115">
+        <v>9.73</v>
+      </c>
       <c r="AC115" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -10587,22 +12636,25 @@
       <c r="AG115">
         <v>7.53724479675293</v>
       </c>
-      <c r="AH115" t="s">
-        <v>214</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688603</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>6.78</v>
@@ -10620,7 +12672,7 @@
         <v>37627.29</v>
       </c>
       <c r="J116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K116">
         <v>5</v>
@@ -10661,8 +12713,23 @@
       <c r="W116">
         <v>0.47</v>
       </c>
+      <c r="X116">
+        <v>-1.31</v>
+      </c>
+      <c r="Y116">
+        <v>93.3</v>
+      </c>
+      <c r="Z116">
+        <v>-9.710000000000001</v>
+      </c>
       <c r="AC116" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10670,22 +12737,25 @@
       <c r="AG116">
         <v>2.818240404129028</v>
       </c>
-      <c r="AH116" t="s">
-        <v>214</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688711</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>2.64</v>
@@ -10703,7 +12773,7 @@
         <v>20095.88</v>
       </c>
       <c r="J117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K117">
         <v>10</v>
@@ -10744,8 +12814,23 @@
       <c r="W117">
         <v>-0.04</v>
       </c>
+      <c r="X117">
+        <v>1.06</v>
+      </c>
+      <c r="Y117">
+        <v>29</v>
+      </c>
+      <c r="Z117">
+        <v>-4.35</v>
+      </c>
       <c r="AC117" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>1</v>
@@ -10753,22 +12838,25 @@
       <c r="AG117">
         <v>5.618925094604492</v>
       </c>
-      <c r="AH117" t="s">
-        <v>214</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:34">
+    <row r="118" spans="1:35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>688716</v>
       </c>
       <c r="D118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E118">
         <v>-2.46</v>
@@ -10786,7 +12874,7 @@
         <v>24791.9</v>
       </c>
       <c r="J118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K118">
         <v>4</v>
@@ -10827,8 +12915,23 @@
       <c r="W118">
         <v>-0.97</v>
       </c>
+      <c r="X118">
+        <v>4.59</v>
+      </c>
+      <c r="Y118">
+        <v>57.59</v>
+      </c>
+      <c r="Z118">
+        <v>3.95</v>
+      </c>
       <c r="AC118" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -10836,22 +12939,25 @@
       <c r="AG118">
         <v>-2.080568552017212</v>
       </c>
-      <c r="AH118" t="s">
-        <v>214</v>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34">
+    <row r="119" spans="1:35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119">
         <v>688733</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>-5.88</v>
@@ -10869,7 +12975,7 @@
         <v>27473.64</v>
       </c>
       <c r="J119" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K119">
         <v>4</v>
@@ -10910,8 +13016,23 @@
       <c r="W119">
         <v>-0.74</v>
       </c>
+      <c r="X119">
+        <v>-6.57</v>
+      </c>
+      <c r="Y119">
+        <v>28.68</v>
+      </c>
+      <c r="Z119">
+        <v>-3.08</v>
+      </c>
       <c r="AC119" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -10919,22 +13040,25 @@
       <c r="AG119">
         <v>9.193805694580078</v>
       </c>
-      <c r="AH119" t="s">
-        <v>214</v>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34">
+    <row r="120" spans="1:35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C120">
         <v>688800</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <v>-2.04</v>
@@ -10952,7 +13076,7 @@
         <v>38575.17</v>
       </c>
       <c r="J120" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K120">
         <v>11</v>
@@ -10993,8 +13117,23 @@
       <c r="W120">
         <v>-0.1</v>
       </c>
+      <c r="X120">
+        <v>-7.82</v>
+      </c>
+      <c r="Y120">
+        <v>76</v>
+      </c>
+      <c r="Z120">
+        <v>-0.31</v>
+      </c>
       <c r="AC120" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>1</v>
@@ -11002,8 +13141,11 @@
       <c r="AG120">
         <v>4.848807811737061</v>
       </c>
-      <c r="AH120" t="s">
-        <v>214</v>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
